--- a/result/0/inconsistency.xlsx
+++ b/result/0/inconsistency.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoyue-admin/Documents/privacy_label/public/Lalaine/result/0/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA1EA47-D2A4-C843-ADEB-A116838A50B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28260" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,8 +67,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,14 +131,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -191,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,27 +209,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,24 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -468,20 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -521,7 +465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -541,7 +485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -561,7 +505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -581,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -598,7 +542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -615,7 +559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>

--- a/result/0/inconsistency.xlsx
+++ b/result/0/inconsistency.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -40,22 +40,40 @@
     <t>News</t>
   </si>
   <si>
+    <t>Precise Location</t>
+  </si>
+  <si>
+    <t>Advertising Data</t>
+  </si>
+  <si>
     <t>Device ID</t>
   </si>
   <si>
+    <t>Other Data Types</t>
+  </si>
+  <si>
+    <t>Other Diagnostic Data</t>
+  </si>
+  <si>
     <t>User ID</t>
   </si>
   <si>
+    <t>Developer's Advertising or Marketing</t>
+  </si>
+  <si>
+    <t>Product Personalization</t>
+  </si>
+  <si>
+    <t>Third-Party Advertising</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
     <t>App Functionality</t>
   </si>
   <si>
-    <t>Product Personalization</t>
-  </si>
-  <si>
-    <t>Analytics</t>
-  </si>
-  <si>
-    <t>Third-Party Advertising</t>
+    <t>inadequate</t>
   </si>
   <si>
     <t>incorrect</t>
@@ -419,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,14 +473,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -473,16 +488,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -493,16 +508,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -513,16 +528,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -533,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -550,13 +565,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,13 +582,115 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
